--- a/biology/Botanique/Peer_Gynt_(rose)/Peer_Gynt_(rose).xlsx
+++ b/biology/Botanique/Peer_Gynt_(rose)/Peer_Gynt_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Peer Gynt' est un cultivar de rosier obtenu en 1968 par le rosiériste ouest-allemand Reimer Kordes[1],[2]. Il est issu du croisement 'Reine des Roses' (Kordes, 1964) x 'Fièvre d'Or' (Kordes, 1961)[3]. Il doit son nom au personnage d'Ibsen, Peer Gynt (de la pièce éponyme), qui a donné naissance à de nombreuses adaptations cinématographiques.
+'Peer Gynt' est un cultivar de rosier obtenu en 1968 par le rosiériste ouest-allemand Reimer Kordes,. Il est issu du croisement 'Reine des Roses' (Kordes, 1964) x 'Fièvre d'Or' (Kordes, 1961). Il doit son nom au personnage d'Ibsen, Peer Gynt (de la pièce éponyme), qui a donné naissance à de nombreuses adaptations cinématographiques.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet hybride de thé présente de grande fleurs (50 pétales) jaune pâle à jaune citron aux bords rouges parfumées.  
 Sa floraison est remontante.
-Son buisson s'élève de 80 cm à 130 cm pour une largeur de 60 cm en moyenne[3]. Il est idéal pour éclairer les massifs et pour les bouquets[4].
-Sa  zone de rusticité est de 7b à plus chaud[5] ; son pied a donc besoin d'être protégé en cas d'hiver rigoureux. Il faut le tailler avant le début du printemps[3].
+Son buisson s'élève de 80 cm à 130 cm pour une largeur de 60 cm en moyenne. Il est idéal pour éclairer les massifs et pour les bouquets.
+Sa  zone de rusticité est de 7b à plus chaud ; son pied a donc besoin d'être protégé en cas d'hiver rigoureux. Il faut le tailler avant le début du printemps.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille d'or de Belfast, 1970</t>
         </is>
@@ -576,10 +592,12 @@
           <t>Descendance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>'Peer Gynt' a notamment donné naissance à 
-'Sheila's Perfume' (Sheridan, 1982) par croisement 'Peer Gynt' × ['Daily Sketch' × ('Paddy McGredy' × 'Prima Ballerina')][5].</t>
+'Sheila's Perfume' (Sheridan, 1982) par croisement 'Peer Gynt' × ['Daily Sketch' × ('Paddy McGredy' × 'Prima Ballerina')].</t>
         </is>
       </c>
     </row>
